--- a/com.Ecommerce/src/main/resources/TestData/TESTDATA.xlsx
+++ b/com.Ecommerce/src/main/resources/TestData/TESTDATA.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN SINGH\git\project\com.Ecommerce\src\main\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6184C8F7-0F74-4295-8D46-7BA732C9BA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLoginData" sheetId="2" r:id="rId2"/>
+    <sheet name="InvalidLoginData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>First Name</t>
   </si>
@@ -73,36 +81,6 @@
     <t>Malhotra</t>
   </si>
   <si>
-    <t>meera.agarwal@inbox.com</t>
-  </si>
-  <si>
-    <t>nikhil.chopra@inbox.com</t>
-  </si>
-  <si>
-    <t>kavya.chopra@inbox.com</t>
-  </si>
-  <si>
-    <t>kabir.kapoor@inbox.com</t>
-  </si>
-  <si>
-    <t>sara.chopra@sample.org</t>
-  </si>
-  <si>
-    <t>anaya.mehta@example.com</t>
-  </si>
-  <si>
-    <t>priya.iyer@example.com</t>
-  </si>
-  <si>
-    <t>sneha.malhotra@inbox.com</t>
-  </si>
-  <si>
-    <t>isha.chopra@example.com</t>
-  </si>
-  <si>
-    <t>anaya.malhotra@example.com</t>
-  </si>
-  <si>
     <t>)bmr@v&amp;ns=94</t>
   </si>
   <si>
@@ -131,13 +109,112 @@
   </si>
   <si>
     <t>02va=%q8TOBV</t>
+  </si>
+  <si>
+    <t>mee9652ra.agarwal@inbox.com</t>
+  </si>
+  <si>
+    <t>nikh858il.chopra@inbox.com</t>
+  </si>
+  <si>
+    <t>kav9595ya.chopra@inbox.com</t>
+  </si>
+  <si>
+    <t>ka9959bir.kapoor@inbox.com</t>
+  </si>
+  <si>
+    <t>sar598a.chopra@sample.org</t>
+  </si>
+  <si>
+    <t>ana848741ya.mehta@example.com</t>
+  </si>
+  <si>
+    <t>pri8592956ya.iyer@example.com</t>
+  </si>
+  <si>
+    <t>sneh9565962a.malhotra@inbox.com</t>
+  </si>
+  <si>
+    <t>ish58885895a.chopra@example.com</t>
+  </si>
+  <si>
+    <t>an968585854aya.malhotra@example.com</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>d123456789@gmail.com</t>
+  </si>
+  <si>
+    <t>d@123456</t>
+  </si>
+  <si>
+    <t>)bmr@kjihgfv&amp;ns=94</t>
+  </si>
+  <si>
+    <t>wGbiuhgytcf=AqG6OQZ1</t>
+  </si>
+  <si>
+    <t>j4tGkjhgcfRl_#Xd+%</t>
+  </si>
+  <si>
+    <t>!ol%oiuhygfcxVj9f_0Cm</t>
+  </si>
+  <si>
+    <t>Cl(VWoiuyhgtfd^nf4!fL</t>
+  </si>
+  <si>
+    <t>JE_A+lkjhgfc_uM</t>
+  </si>
+  <si>
+    <t>!s7bAAoiuygtfrdsy=OL%v</t>
+  </si>
+  <si>
+    <t>tpmqIlokijuhygfdxtFYXC9o</t>
+  </si>
+  <si>
+    <t>R!pGlokijuhgfdcxzb7XTwSF0</t>
+  </si>
+  <si>
+    <t>02vapoiuhygtfrdsz=%q8TOBV</t>
+  </si>
+  <si>
+    <t>m8541ee9652ra.agarwal@inbox.com</t>
+  </si>
+  <si>
+    <t>nikiuytgfrdsh858il.chopra@inbox.com</t>
+  </si>
+  <si>
+    <t>kaoiuyhgtfv9595ya.chopra@inbox.com</t>
+  </si>
+  <si>
+    <t>kaoiuyhgtfc9959bir.kapoor@inbox.com</t>
+  </si>
+  <si>
+    <t>saikjuhygfcr598a.chopra@sample.org</t>
+  </si>
+  <si>
+    <t>aniuytfdfghja848741ya.mehta@example.com</t>
+  </si>
+  <si>
+    <t>ploikujhygfdcxri8592956ya.iyer@example.com</t>
+  </si>
+  <si>
+    <t>sneiujhygtfcxh9565962a.malhotra@inbox.com</t>
+  </si>
+  <si>
+    <t>ish5kijuhgfc8885895a.chopra@example.com</t>
+  </si>
+  <si>
+    <t>an9juhygf68585854aya.malhotra@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +230,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -186,27 +277,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,7 +352,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -278,6 +386,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -312,9 +421,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,14 +597,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="220" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -516,139 +628,308 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{11A8058D-6FAE-4FDA-8B90-DE8A036B9339}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{56EBE829-E92A-4E41-89B4-EC1E285C463D}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{9254820E-DB42-4A7A-AE4E-B51E361BCC65}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{3B7CD97F-18BF-42BC-9C78-4AEAB2CDF193}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{0458F023-C9D0-49F7-9CA0-3FB868DAAB0E}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{9352020E-23E9-461D-AED2-1DB4C9AC300E}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{FA98D7D7-5634-47E4-99ED-8DC23152076D}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{95B6F385-57BA-4F62-A802-C014BFA016EB}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{8B2A47E6-200C-4225-8AD9-4275D0E63F87}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EA2FA9-0DD8-4F2F-A12E-3CD225702A16}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="262" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{48228F9B-7DAA-43D1-80A6-2777B7EF66E1}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{A940F534-B909-4AE6-AE58-73071F57FEEA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21655E3C-A339-479C-8E20-2D6826E77DF7}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView zoomScale="251" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BAA30E9C-A7AA-4708-BF29-09C8BA4A7165}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00704718-ED0E-4E01-A544-9ECF4E40819A}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{FF8E4F34-0513-499A-A784-7CA1626411D6}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{B18C35BB-6086-43A2-9385-DF0DE511CEC9}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{DD3BF2A4-128E-4959-A61A-7CA40CCED299}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{6516A1EB-C693-4F07-8F56-2B6C37473F0E}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{401E306D-EA3B-426D-90A9-225376107857}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{DD2618EE-6549-4187-905A-F5991B712B4E}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{E36C53D3-6F8C-4D47-A47C-D7A788375BDC}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{E640AC6F-6617-47E1-B28F-0A0B2A9158A0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/com.Ecommerce/src/main/resources/TestData/TESTDATA.xlsx
+++ b/com.Ecommerce/src/main/resources/TestData/TESTDATA.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN SINGH\git\project\com.Ecommerce\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6184C8F7-0F74-4295-8D46-7BA732C9BA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DEB525-9EC7-499D-8522-1F07E186CA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ValidLoginData" sheetId="2" r:id="rId2"/>
-    <sheet name="InvalidLoginData" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="ValidLoginData" sheetId="2" r:id="rId3"/>
+    <sheet name="InvalidLoginData" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>First Name</t>
   </si>
@@ -36,81 +37,12 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Meera</t>
-  </si>
-  <si>
-    <t>Nikhil</t>
-  </si>
-  <si>
-    <t>Kavya</t>
-  </si>
-  <si>
-    <t>Kabir</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>Anaya</t>
-  </si>
-  <si>
-    <t>Priya</t>
-  </si>
-  <si>
-    <t>Sneha</t>
-  </si>
-  <si>
-    <t>Isha</t>
-  </si>
-  <si>
     <t>Agarwal</t>
   </si>
   <si>
-    <t>Chopra</t>
-  </si>
-  <si>
-    <t>Kapoor</t>
-  </si>
-  <si>
-    <t>Mehta</t>
-  </si>
-  <si>
-    <t>Iyer</t>
-  </si>
-  <si>
-    <t>Malhotra</t>
-  </si>
-  <si>
     <t>)bmr@v&amp;ns=94</t>
   </si>
   <si>
-    <t>wGb=AqG6OQZ1</t>
-  </si>
-  <si>
-    <t>j4tGRl_#Xd+%</t>
-  </si>
-  <si>
-    <t>!ol%Vj9f_0Cm</t>
-  </si>
-  <si>
-    <t>Cl(VW^nf4!fL</t>
-  </si>
-  <si>
-    <t>JE_A+R4SA_uM</t>
-  </si>
-  <si>
-    <t>!s7bAAy=OL%v</t>
-  </si>
-  <si>
-    <t>tpmqItFYXC9o</t>
-  </si>
-  <si>
-    <t>R!pGb7XTwSF0</t>
-  </si>
-  <si>
-    <t>02va=%q8TOBV</t>
-  </si>
-  <si>
     <t>mee9652ra.agarwal@inbox.com</t>
   </si>
   <si>
@@ -183,31 +115,7 @@
     <t>m8541ee9652ra.agarwal@inbox.com</t>
   </si>
   <si>
-    <t>nikiuytgfrdsh858il.chopra@inbox.com</t>
-  </si>
-  <si>
-    <t>kaoiuyhgtfv9595ya.chopra@inbox.com</t>
-  </si>
-  <si>
-    <t>kaoiuyhgtfc9959bir.kapoor@inbox.com</t>
-  </si>
-  <si>
-    <t>saikjuhygfcr598a.chopra@sample.org</t>
-  </si>
-  <si>
-    <t>aniuytfdfghja848741ya.mehta@example.com</t>
-  </si>
-  <si>
-    <t>ploikujhygfdcxri8592956ya.iyer@example.com</t>
-  </si>
-  <si>
-    <t>sneiujhygtfcxh9565962a.malhotra@inbox.com</t>
-  </si>
-  <si>
-    <t>ish5kijuhgfc8885895a.chopra@example.com</t>
-  </si>
-  <si>
-    <t>an9juhygf68585854aya.malhotra@example.com</t>
+    <t>Meer0a</t>
   </si>
 </sst>
 </file>
@@ -601,7 +509,80 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="220" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF083E2-E4A6-4693-96D4-BB16A442B37F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,165 +603,28 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{11A8058D-6FAE-4FDA-8B90-DE8A036B9339}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{56EBE829-E92A-4E41-89B4-EC1E285C463D}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{9254820E-DB42-4A7A-AE4E-B51E361BCC65}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{3B7CD97F-18BF-42BC-9C78-4AEAB2CDF193}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{0458F023-C9D0-49F7-9CA0-3FB868DAAB0E}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{9352020E-23E9-461D-AED2-1DB4C9AC300E}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{FA98D7D7-5634-47E4-99ED-8DC23152076D}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{95B6F385-57BA-4F62-A802-C014BFA016EB}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{8B2A47E6-200C-4225-8AD9-4275D0E63F87}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EA2FA9-0DD8-4F2F-A12E-3CD225702A16}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="262" workbookViewId="0">
+    <sheetView zoomScale="262" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -792,7 +636,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -800,10 +644,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21655E3C-A339-479C-8E20-2D6826E77DF7}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -839,82 +683,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
